--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H2">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I2">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J2">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>64.69094383346956</v>
+        <v>155.2735129086551</v>
       </c>
       <c r="R2">
-        <v>64.69094383346956</v>
+        <v>1397.461616177896</v>
       </c>
       <c r="S2">
-        <v>0.003685776527691913</v>
+        <v>0.007144684601263477</v>
       </c>
       <c r="T2">
-        <v>0.003685776527691913</v>
+        <v>0.007144684601263477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H3">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I3">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J3">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>982.5476214711308</v>
+        <v>1108.231709082097</v>
       </c>
       <c r="R3">
-        <v>982.5476214711308</v>
+        <v>9974.085381738872</v>
       </c>
       <c r="S3">
-        <v>0.05598080265887479</v>
+        <v>0.05099366838675682</v>
       </c>
       <c r="T3">
-        <v>0.05598080265887479</v>
+        <v>0.05099366838675682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H4">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I4">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J4">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>874.1438046346914</v>
+        <v>1083.744482102245</v>
       </c>
       <c r="R4">
-        <v>874.1438046346914</v>
+        <v>9753.700338920207</v>
       </c>
       <c r="S4">
-        <v>0.04980447843277434</v>
+        <v>0.04986692429336137</v>
       </c>
       <c r="T4">
-        <v>0.04980447843277434</v>
+        <v>0.04986692429336137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H5">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I5">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J5">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>1092.082402271694</v>
+        <v>1238.378424522182</v>
       </c>
       <c r="R5">
-        <v>1092.082402271694</v>
+        <v>11145.40582069964</v>
       </c>
       <c r="S5">
-        <v>0.0622215637317055</v>
+        <v>0.05698217998987111</v>
       </c>
       <c r="T5">
-        <v>0.0622215637317055</v>
+        <v>0.05698217998987111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H6">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I6">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J6">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>417.7298402452169</v>
+        <v>470.4596293994498</v>
       </c>
       <c r="R6">
-        <v>417.7298402452169</v>
+        <v>4234.136664595047</v>
       </c>
       <c r="S6">
-        <v>0.02380022223907839</v>
+        <v>0.02164751480610708</v>
       </c>
       <c r="T6">
-        <v>0.02380022223907839</v>
+        <v>0.02164751480610708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H7">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I7">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J7">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>265.8832587208668</v>
+        <v>316.1214800502435</v>
       </c>
       <c r="R7">
-        <v>265.8832587208668</v>
+        <v>2845.093320452192</v>
       </c>
       <c r="S7">
-        <v>0.01514873977758515</v>
+        <v>0.01454586959703994</v>
       </c>
       <c r="T7">
-        <v>0.01514873977758515</v>
+        <v>0.01454586959703993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H8">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I8">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J8">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>60.04718736332607</v>
+        <v>129.6539061388664</v>
       </c>
       <c r="R8">
-        <v>60.04718736332607</v>
+        <v>1166.885155249798</v>
       </c>
       <c r="S8">
-        <v>0.00342119778476875</v>
+        <v>0.005965835700702977</v>
       </c>
       <c r="T8">
-        <v>0.00342119778476875</v>
+        <v>0.005965835700702978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H9">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I9">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J9">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>912.0167000769986</v>
+        <v>925.3772088867095</v>
       </c>
       <c r="R9">
-        <v>912.0167000769986</v>
+        <v>8328.394879980386</v>
       </c>
       <c r="S9">
-        <v>0.05196229250666276</v>
+        <v>0.04257988481643037</v>
       </c>
       <c r="T9">
-        <v>0.05196229250666276</v>
+        <v>0.04257988481643038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H10">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I10">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J10">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>811.3945122598906</v>
+        <v>904.9302919014892</v>
       </c>
       <c r="R10">
-        <v>811.3945122598906</v>
+        <v>8144.372627113404</v>
       </c>
       <c r="S10">
-        <v>0.04622932779716622</v>
+        <v>0.04163904970430436</v>
       </c>
       <c r="T10">
-        <v>0.04622932779716622</v>
+        <v>0.04163904970430436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H11">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I11">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J11">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>1013.688667059947</v>
+        <v>1034.050154528619</v>
       </c>
       <c r="R11">
-        <v>1013.688667059947</v>
+        <v>9306.451390757571</v>
       </c>
       <c r="S11">
-        <v>0.05775506854645421</v>
+        <v>0.04758031217044056</v>
       </c>
       <c r="T11">
-        <v>0.05775506854645421</v>
+        <v>0.04758031217044057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H12">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I12">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J12">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>387.7436391873943</v>
+        <v>392.8353747503971</v>
       </c>
       <c r="R12">
-        <v>387.7436391873943</v>
+        <v>3535.518372753574</v>
       </c>
       <c r="S12">
-        <v>0.02209175379721912</v>
+        <v>0.01807574775784107</v>
       </c>
       <c r="T12">
-        <v>0.02209175379721912</v>
+        <v>0.01807574775784107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H13">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I13">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J13">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>246.7971698524423</v>
+        <v>263.9625003333662</v>
       </c>
       <c r="R13">
-        <v>246.7971698524423</v>
+        <v>2375.662503000296</v>
       </c>
       <c r="S13">
-        <v>0.01406130691313705</v>
+        <v>0.01214585009455069</v>
       </c>
       <c r="T13">
-        <v>0.01406130691313705</v>
+        <v>0.01214585009455069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H14">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I14">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J14">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>24.41302291390746</v>
+        <v>72.82068917644378</v>
       </c>
       <c r="R14">
-        <v>24.41302291390746</v>
+        <v>655.386202587994</v>
       </c>
       <c r="S14">
-        <v>0.001390935755361957</v>
+        <v>0.003350737977560954</v>
       </c>
       <c r="T14">
-        <v>0.001390935755361957</v>
+        <v>0.003350737977560955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H15">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I15">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J15">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>370.7931307777536</v>
+        <v>519.7421975634842</v>
       </c>
       <c r="R15">
-        <v>370.7931307777536</v>
+        <v>4677.679778071358</v>
       </c>
       <c r="S15">
-        <v>0.02112599595962247</v>
+        <v>0.02391518041936228</v>
       </c>
       <c r="T15">
-        <v>0.02112599595962247</v>
+        <v>0.02391518041936229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H16">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I16">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J16">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>329.8837745748873</v>
+        <v>508.2580963070013</v>
       </c>
       <c r="R16">
-        <v>329.8837745748873</v>
+        <v>4574.322866763012</v>
       </c>
       <c r="S16">
-        <v>0.01879517906439113</v>
+        <v>0.0233867562221535</v>
       </c>
       <c r="T16">
-        <v>0.01879517906439113</v>
+        <v>0.0233867562221535</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H17">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I17">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J17">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>412.129289366469</v>
+        <v>580.7788375857456</v>
       </c>
       <c r="R17">
-        <v>412.129289366469</v>
+        <v>5227.00953827171</v>
       </c>
       <c r="S17">
-        <v>0.0234811299867815</v>
+        <v>0.02672369253395878</v>
       </c>
       <c r="T17">
-        <v>0.0234811299867815</v>
+        <v>0.02672369253395878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H18">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I18">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J18">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>157.6425934978113</v>
+        <v>220.6377237225024</v>
       </c>
       <c r="R18">
-        <v>157.6425934978113</v>
+        <v>1985.739513502522</v>
       </c>
       <c r="S18">
-        <v>0.008981711139884416</v>
+        <v>0.01015232358441811</v>
       </c>
       <c r="T18">
-        <v>0.008981711139884416</v>
+        <v>0.01015232358441811</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H19">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I19">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J19">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>100.3388372920695</v>
+        <v>148.2557044631209</v>
       </c>
       <c r="R19">
-        <v>100.3388372920695</v>
+        <v>1334.301340168088</v>
       </c>
       <c r="S19">
-        <v>0.005716820769519647</v>
+        <v>0.006821770364339361</v>
       </c>
       <c r="T19">
-        <v>0.005716820769519647</v>
+        <v>0.006821770364339361</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H20">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I20">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J20">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>16.87801681868266</v>
+        <v>93.51515612281334</v>
       </c>
       <c r="R20">
-        <v>16.87801681868266</v>
+        <v>841.63640510532</v>
       </c>
       <c r="S20">
-        <v>0.0009616276179928703</v>
+        <v>0.004302963740689426</v>
       </c>
       <c r="T20">
-        <v>0.0009616276179928703</v>
+        <v>0.004302963740689426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H21">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I21">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J21">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>256.3489461992748</v>
+        <v>667.4445586610267</v>
       </c>
       <c r="R21">
-        <v>256.3489461992748</v>
+        <v>6007.00102794924</v>
       </c>
       <c r="S21">
-        <v>0.0146055208474328</v>
+        <v>0.03071148949446306</v>
       </c>
       <c r="T21">
-        <v>0.0146055208474328</v>
+        <v>0.03071148949446306</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H22">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I22">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J22">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>228.0661397451787</v>
+        <v>652.6968608010401</v>
       </c>
       <c r="R22">
-        <v>228.0661397451787</v>
+        <v>5874.27174720936</v>
       </c>
       <c r="S22">
-        <v>0.01299410357650674</v>
+        <v>0.03003289565169787</v>
       </c>
       <c r="T22">
-        <v>0.01299410357650674</v>
+        <v>0.03003289565169787</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H23">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I23">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J23">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>284.9268237665229</v>
+        <v>745.8268286648668</v>
       </c>
       <c r="R23">
-        <v>284.9268237665229</v>
+        <v>6712.4414579838</v>
       </c>
       <c r="S23">
-        <v>0.01623374984065581</v>
+        <v>0.03431813551552629</v>
       </c>
       <c r="T23">
-        <v>0.01623374984065581</v>
+        <v>0.03431813551552629</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H24">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I24">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J24">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>108.9866811570101</v>
+        <v>283.3394110085733</v>
       </c>
       <c r="R24">
-        <v>108.9866811570101</v>
+        <v>2550.05469907716</v>
       </c>
       <c r="S24">
-        <v>0.006209533010889847</v>
+        <v>0.01303745042436775</v>
       </c>
       <c r="T24">
-        <v>0.006209533010889847</v>
+        <v>0.01303745042436775</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H25">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I25">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J25">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>69.36955695141947</v>
+        <v>190.3875877276267</v>
       </c>
       <c r="R25">
-        <v>69.36955695141947</v>
+        <v>1713.48828954864</v>
       </c>
       <c r="S25">
-        <v>0.003952341233513525</v>
+        <v>0.008760407624122552</v>
       </c>
       <c r="T25">
-        <v>0.003952341233513525</v>
+        <v>0.00876040762412255</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H26">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I26">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J26">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>6.086209706430652</v>
+        <v>13.745601020434</v>
       </c>
       <c r="R26">
-        <v>6.086209706430652</v>
+        <v>123.710409183906</v>
       </c>
       <c r="S26">
-        <v>0.0003467627390986803</v>
+        <v>0.0006324838158558344</v>
       </c>
       <c r="T26">
-        <v>0.0003467627390986803</v>
+        <v>0.0006324838158558344</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H27">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I27">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J27">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>92.43938202883417</v>
+        <v>98.10630690243799</v>
       </c>
       <c r="R27">
-        <v>92.43938202883417</v>
+        <v>882.956762121942</v>
       </c>
       <c r="S27">
-        <v>0.00526674808445053</v>
+        <v>0.004514218858595853</v>
       </c>
       <c r="T27">
-        <v>0.00526674808445053</v>
+        <v>0.004514218858595853</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H28">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I28">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J28">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>82.24060731405376</v>
+        <v>95.93857303813199</v>
       </c>
       <c r="R28">
-        <v>82.24060731405376</v>
+        <v>863.4471573431879</v>
       </c>
       <c r="S28">
-        <v>0.004685671318099395</v>
+        <v>0.00441447374128756</v>
       </c>
       <c r="T28">
-        <v>0.004685671318099395</v>
+        <v>0.00441447374128756</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H29">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I29">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J29">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>102.7445593318005</v>
+        <v>109.62755602631</v>
       </c>
       <c r="R29">
-        <v>102.7445593318005</v>
+        <v>986.64800423679</v>
       </c>
       <c r="S29">
-        <v>0.005853887154715965</v>
+        <v>0.005044352360831187</v>
       </c>
       <c r="T29">
-        <v>0.005853887154715965</v>
+        <v>0.005044352360831187</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H30">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I30">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J30">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>39.30057683052063</v>
+        <v>41.647478960242</v>
       </c>
       <c r="R30">
-        <v>39.30057683052063</v>
+        <v>374.827310642178</v>
       </c>
       <c r="S30">
-        <v>0.002239156441735852</v>
+        <v>0.001916348101068173</v>
       </c>
       <c r="T30">
-        <v>0.002239156441735852</v>
+        <v>0.001916348101068173</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H31">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I31">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J31">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>25.01464925554422</v>
+        <v>27.984681078968</v>
       </c>
       <c r="R31">
-        <v>25.01464925554422</v>
+        <v>251.862129710712</v>
       </c>
       <c r="S31">
-        <v>0.001425213509202653</v>
+        <v>0.001287674351090353</v>
       </c>
       <c r="T31">
-        <v>0.001425213509202653</v>
+        <v>0.001287674351090353</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H32">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I32">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J32">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>134.9984513018249</v>
+        <v>306.8017683707494</v>
       </c>
       <c r="R32">
-        <v>134.9984513018249</v>
+        <v>2761.215915336744</v>
       </c>
       <c r="S32">
-        <v>0.007691557636937629</v>
+        <v>0.01411703663462819</v>
       </c>
       <c r="T32">
-        <v>0.007691557636937629</v>
+        <v>0.01411703663462819</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H33">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I33">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J33">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>2050.40148386687</v>
+        <v>2189.732438854179</v>
       </c>
       <c r="R33">
-        <v>2050.40148386687</v>
+        <v>19707.59194968761</v>
       </c>
       <c r="S33">
-        <v>0.1168219415848313</v>
+        <v>0.1007573496837947</v>
       </c>
       <c r="T33">
-        <v>0.1168219415848313</v>
+        <v>0.1007573496837947</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H34">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I34">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J34">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>1824.182070129479</v>
+        <v>2141.348626321168</v>
       </c>
       <c r="R34">
-        <v>1824.182070129479</v>
+        <v>19272.13763689051</v>
       </c>
       <c r="S34">
-        <v>0.1039330555081665</v>
+        <v>0.09853103900221447</v>
       </c>
       <c r="T34">
-        <v>0.1039330555081665</v>
+        <v>0.09853103900221448</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H35">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I35">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J35">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>2278.9810175003</v>
+        <v>2446.886680403107</v>
       </c>
       <c r="R35">
-        <v>2278.9810175003</v>
+        <v>22021.98012362796</v>
       </c>
       <c r="S35">
-        <v>0.1298452958575042</v>
+        <v>0.1125899276639493</v>
       </c>
       <c r="T35">
-        <v>0.1298452958575042</v>
+        <v>0.1125899276639494</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H36">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I36">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J36">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>871.7276044206776</v>
+        <v>929.5715897901414</v>
       </c>
       <c r="R36">
-        <v>871.7276044206776</v>
+        <v>8366.144308111272</v>
       </c>
       <c r="S36">
-        <v>0.04966681505197808</v>
+        <v>0.04277288314622415</v>
       </c>
       <c r="T36">
-        <v>0.04966681505197808</v>
+        <v>0.04277288314622415</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H37">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I37">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J37">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>554.8508960821321</v>
+        <v>624.6179872058987</v>
       </c>
       <c r="R37">
-        <v>554.8508960821321</v>
+        <v>5621.561884853088</v>
       </c>
       <c r="S37">
-        <v>0.03161271559760864</v>
+        <v>0.02874088716913041</v>
       </c>
       <c r="T37">
-        <v>0.03161271559760864</v>
+        <v>0.02874088716913041</v>
       </c>
     </row>
   </sheetData>
